--- a/table/BCc/count_BCD.xlsx
+++ b/table/BCc/count_BCD.xlsx
@@ -389,16 +389,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9163391679056765</v>
+        <v>0.9163391679056774</v>
       </c>
       <c r="C2">
-        <v>0.01452581524334844</v>
+        <v>0.01452581524334918</v>
       </c>
       <c r="D2">
-        <v>0.9260328744261294</v>
+        <v>0.9260328744261305</v>
       </c>
       <c r="E2">
-        <v>0.02701211564713736</v>
+        <v>0.02701211564713926</v>
       </c>
     </row>
     <row r="3">
@@ -406,16 +406,16 @@
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>0.9364985082242501</v>
+        <v>0.9364985082242494</v>
       </c>
       <c r="C3">
-        <v>0.05377160431216128</v>
+        <v>0.05377160431215897</v>
       </c>
       <c r="D3">
-        <v>0.9028522262942575</v>
+        <v>0.9028522262942598</v>
       </c>
       <c r="E3">
-        <v>0.006321758717538362</v>
+        <v>0.00632175871753917</v>
       </c>
     </row>
     <row r="4">
@@ -423,16 +423,16 @@
         <v>0.2</v>
       </c>
       <c r="B4">
-        <v>0.9522536726645411</v>
+        <v>0.9522536726645414</v>
       </c>
       <c r="C4">
-        <v>0.1547621208606661</v>
+        <v>0.1547621208606687</v>
       </c>
       <c r="D4">
-        <v>0.9359562903380501</v>
+        <v>0.9359562903380487</v>
       </c>
       <c r="E4">
-        <v>0.05186653910319734</v>
+        <v>0.05186653910319274</v>
       </c>
     </row>
     <row r="5">
@@ -440,16 +440,16 @@
         <v>0.25</v>
       </c>
       <c r="B5">
-        <v>0.949752704995382</v>
+        <v>0.9497527049953833</v>
       </c>
       <c r="C5">
-        <v>0.130843983764436</v>
+        <v>0.1308439837644477</v>
       </c>
       <c r="D5">
-        <v>0.9428976695560322</v>
+        <v>0.9428976695560343</v>
       </c>
       <c r="E5">
-        <v>0.08250638951103609</v>
+        <v>0.08250638951104786</v>
       </c>
     </row>
     <row r="6">
@@ -457,16 +457,16 @@
         <v>0.3</v>
       </c>
       <c r="B6">
-        <v>0.9551944528456261</v>
+        <v>0.955194452845627</v>
       </c>
       <c r="C6">
-        <v>0.1883482019281764</v>
+        <v>0.1883482019281883</v>
       </c>
       <c r="D6">
-        <v>0.9531020682937302</v>
+        <v>0.9531020682937309</v>
       </c>
       <c r="E6">
-        <v>0.1638070983059073</v>
+        <v>0.1638070983059146</v>
       </c>
     </row>
     <row r="7">
@@ -474,16 +474,16 @@
         <v>0.4</v>
       </c>
       <c r="B7">
-        <v>0.9292649994065826</v>
+        <v>0.9292649994065835</v>
       </c>
       <c r="C7">
-        <v>0.03334847191218403</v>
+        <v>0.03334847191218601</v>
       </c>
       <c r="D7">
-        <v>0.9495342253273618</v>
+        <v>0.9495342253273628</v>
       </c>
       <c r="E7">
-        <v>0.1289361227647987</v>
+        <v>0.1289361227648077</v>
       </c>
     </row>
     <row r="8">
@@ -491,16 +491,16 @@
         <v>0.5</v>
       </c>
       <c r="B8">
-        <v>0.9307069591084863</v>
+        <v>0.9307069591084872</v>
       </c>
       <c r="C8">
-        <v>0.03665687343828273</v>
+        <v>0.03665687343828471</v>
       </c>
       <c r="D8">
-        <v>0.9498172347480338</v>
+        <v>0.9498172347480347</v>
       </c>
       <c r="E8">
-        <v>0.1314127996732429</v>
+        <v>0.1314127996732507</v>
       </c>
     </row>
     <row r="9">
@@ -508,16 +508,16 @@
         <v>0.6</v>
       </c>
       <c r="B9">
-        <v>0.9205676744254792</v>
+        <v>0.9205676744254797</v>
       </c>
       <c r="C9">
-        <v>0.01899748859727757</v>
+        <v>0.01899748859727839</v>
       </c>
       <c r="D9">
-        <v>0.9377345573673436</v>
+        <v>0.9377345573673445</v>
       </c>
       <c r="E9">
-        <v>0.05838809156419342</v>
+        <v>0.05838809156419698</v>
       </c>
     </row>
     <row r="10">
@@ -525,16 +525,16 @@
         <v>0.7</v>
       </c>
       <c r="B10">
-        <v>0.9038995555384908</v>
+        <v>0.9038995555384886</v>
       </c>
       <c r="C10">
-        <v>0.006734707969178927</v>
+        <v>0.006734707969177988</v>
       </c>
       <c r="D10">
-        <v>0.9347473873659888</v>
+        <v>0.9347473873659895</v>
       </c>
       <c r="E10">
-        <v>0.04786526532326276</v>
+        <v>0.04786526532326477</v>
       </c>
     </row>
     <row r="11">
@@ -542,16 +542,16 @@
         <v>0.8</v>
       </c>
       <c r="B11">
-        <v>0.8819765021669827</v>
+        <v>0.8819765021669828</v>
       </c>
       <c r="C11">
-        <v>0.001874679361670861</v>
+        <v>0.001874679361670867</v>
       </c>
       <c r="D11">
-        <v>0.8887698970668753</v>
+        <v>0.8887698970668751</v>
       </c>
       <c r="E11">
-        <v>0.002758301404888252</v>
+        <v>0.002758301404888243</v>
       </c>
     </row>
     <row r="12">
@@ -559,13 +559,13 @@
         <v>0.9</v>
       </c>
       <c r="B12">
-        <v>0.8645225539182506</v>
+        <v>0.8645225539182501</v>
       </c>
       <c r="C12">
-        <v>0.000722820585517425</v>
+        <v>0.000722820585517406</v>
       </c>
       <c r="D12">
-        <v>0.8319503228730891</v>
+        <v>0.8319503228730892</v>
       </c>
       <c r="E12">
         <v>0.0001397964817233735</v>
@@ -576,16 +576,16 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>0.8490913930876745</v>
+        <v>0.849091393087675</v>
       </c>
       <c r="C13">
-        <v>0.0003251246119169344</v>
+        <v>0.0003251246119169434</v>
       </c>
       <c r="D13">
-        <v>0.7981923336775438</v>
+        <v>0.7981923336775392</v>
       </c>
       <c r="E13">
-        <v>2.981753141377145e-005</v>
+        <v>2.981753141376527e-05</v>
       </c>
     </row>
   </sheetData>
